--- a/tests/data/dat.xlsx
+++ b/tests/data/dat.xlsx
@@ -66,6 +66,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/tests/data/dat.xlsx
+++ b/tests/data/dat.xlsx
@@ -7,7 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TestSheet12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TestSheet22" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,46 +440,469 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Easting</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>530034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>180381</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>406689</v>
+      </c>
+      <c r="C3" t="n">
+        <v>286822</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>383819</v>
+      </c>
+      <c r="C4" t="n">
+        <v>398052</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>582044</v>
+      </c>
+      <c r="C5" t="n">
+        <v>152953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>530034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>406689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>383819</v>
+      </c>
+      <c r="E2" t="n">
+        <v>582044</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>Northing</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>180381</v>
+      </c>
+      <c r="C3" t="n">
+        <v>286822</v>
+      </c>
+      <c r="D3" t="n">
+        <v>398052</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>530034</v>
       </c>
+      <c r="C2" t="n">
+        <v>180381</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>406689</v>
+      </c>
+      <c r="C3" t="n">
+        <v>286822</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>383819</v>
+      </c>
+      <c r="C4" t="n">
+        <v>398052</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>582044</v>
+      </c>
+      <c r="C5" t="n">
+        <v>152953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
       <c r="B2" t="n">
+        <v>530034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>406689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>383819</v>
+      </c>
+      <c r="E2" t="n">
+        <v>582044</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>180381</v>
       </c>
+      <c r="C3" t="n">
+        <v>286822</v>
+      </c>
+      <c r="D3" t="n">
+        <v>398052</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>530034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>180381</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>406689</v>
       </c>
+      <c r="C3" t="n">
+        <v>286822</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>383819</v>
+      </c>
+      <c r="C4" t="n">
+        <v>398052</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>582044</v>
+      </c>
+      <c r="C5" t="n">
+        <v>152953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>530034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>406689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>383819</v>
+      </c>
+      <c r="E2" t="n">
+        <v>582044</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
       <c r="B3" t="n">
+        <v>180381</v>
+      </c>
+      <c r="C3" t="n">
         <v>286822</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>383819</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="D3" t="n">
         <v>398052</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>582044</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="E3" t="n">
         <v>152953</v>
       </c>
     </row>

--- a/tests/data/dat.xlsx
+++ b/tests/data/dat.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="TestSheet12" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="TestSheet22" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet22" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/tests/data/dat.xlsx
+++ b/tests/data/dat.xlsx
@@ -55,7 +55,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/tests/data/dat.xlsx
+++ b/tests/data/dat.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet12" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet22" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TestSheet12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TestSheet22" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/tests/data/dat.xlsx
+++ b/tests/data/dat.xlsx
@@ -7,7 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TestSheet12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TestSheet22" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,23 +439,470 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Col1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Col2</t>
+          <t>Easting</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Northing</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>530034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>180381</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>406689</v>
+      </c>
+      <c r="C3" t="n">
+        <v>286822</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>383819</v>
+      </c>
+      <c r="C4" t="n">
+        <v>398052</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>582044</v>
+      </c>
+      <c r="C5" t="n">
+        <v>152953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>530034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>406689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>383819</v>
+      </c>
+      <c r="E2" t="n">
+        <v>582044</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>180381</v>
+      </c>
+      <c r="C3" t="n">
+        <v>286822</v>
+      </c>
+      <c r="D3" t="n">
+        <v>398052</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>530034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>180381</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>406689</v>
+      </c>
+      <c r="C3" t="n">
+        <v>286822</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>383819</v>
+      </c>
+      <c r="C4" t="n">
+        <v>398052</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>582044</v>
+      </c>
+      <c r="C5" t="n">
+        <v>152953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>530034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>406689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>383819</v>
+      </c>
+      <c r="E2" t="n">
+        <v>582044</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>180381</v>
+      </c>
+      <c r="C3" t="n">
+        <v>286822</v>
+      </c>
+      <c r="D3" t="n">
+        <v>398052</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>530034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>180381</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>406689</v>
+      </c>
+      <c r="C3" t="n">
+        <v>286822</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>383819</v>
+      </c>
+      <c r="C4" t="n">
+        <v>398052</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>582044</v>
+      </c>
+      <c r="C5" t="n">
+        <v>152953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>530034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>406689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>383819</v>
+      </c>
+      <c r="E2" t="n">
+        <v>582044</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>180381</v>
+      </c>
+      <c r="C3" t="n">
+        <v>286822</v>
+      </c>
+      <c r="D3" t="n">
+        <v>398052</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152953</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/dat.xlsx
+++ b/tests/data/dat.xlsx
@@ -2,17 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="TestSheet12" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="TestSheet22" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,10 +19,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -42,12 +47,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -60,14 +80,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -439,19 +462,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Easting</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Northing</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>London</t>
         </is>
@@ -464,7 +487,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
@@ -477,7 +500,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Manchester</t>
         </is>
@@ -490,7 +513,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Leeds</t>
         </is>
@@ -522,29 +545,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Manchester</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Leeds</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Easting</t>
         </is>
@@ -563,7 +586,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Northing</t>
         </is>
@@ -601,19 +624,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Easting</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Northing</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>London</t>
         </is>
@@ -626,7 +649,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
@@ -639,7 +662,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Manchester</t>
         </is>
@@ -652,7 +675,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Leeds</t>
         </is>
@@ -684,29 +707,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Manchester</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Leeds</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Easting</t>
         </is>
@@ -725,169 +748,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Northing</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>180381</v>
-      </c>
-      <c r="C3" t="n">
-        <v>286822</v>
-      </c>
-      <c r="D3" t="n">
-        <v>398052</v>
-      </c>
-      <c r="E3" t="n">
-        <v>152953</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Easting</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Northing</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>London</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>530034</v>
-      </c>
-      <c r="C2" t="n">
-        <v>180381</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>406689</v>
-      </c>
-      <c r="C3" t="n">
-        <v>286822</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Manchester</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>383819</v>
-      </c>
-      <c r="C4" t="n">
-        <v>398052</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Leeds</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>582044</v>
-      </c>
-      <c r="C5" t="n">
-        <v>152953</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>London</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Manchester</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Leeds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Easting</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>530034</v>
-      </c>
-      <c r="C2" t="n">
-        <v>406689</v>
-      </c>
-      <c r="D2" t="n">
-        <v>383819</v>
-      </c>
-      <c r="E2" t="n">
-        <v>582044</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Northing</t>
         </is>

--- a/tests/data/dat.xlsx
+++ b/tests/data/dat.xlsx
@@ -1,57 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Easting</t>
-  </si>
-  <si>
-    <t>Northing</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -74,21 +70,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,54 +448,335 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>530034</v>
-      </c>
-      <c r="B2">
-        <v>180381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>406689</v>
-      </c>
-      <c r="B3">
-        <v>286822</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>383819</v>
-      </c>
-      <c r="B4">
-        <v>398052</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>582044</v>
-      </c>
-      <c r="B5">
-        <v>152953</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1276474</v>
+      </c>
+      <c r="C2" t="n">
+        <v>51.5073219</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.9026911</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.4796992</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.2451148</v>
+      </c>
+      <c r="C4" t="n">
+        <v>53.4794892</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.5437941</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53.7974185</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1276474</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.9026911</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.2451148</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.5437941</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>51.5073219</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.4796992</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.4794892</v>
+      </c>
+      <c r="E3" t="n">
+        <v>53.7974185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1276474</v>
+      </c>
+      <c r="C2" t="n">
+        <v>51.5073219</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.9026911</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.4796992</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.2451148</v>
+      </c>
+      <c r="C4" t="n">
+        <v>53.4794892</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.5437941</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53.7974185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1276474</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.9026911</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.2451148</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.5437941</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>51.5073219</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.4796992</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.4794892</v>
+      </c>
+      <c r="E3" t="n">
+        <v>53.7974185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/data/dat.xlsx
+++ b/tests/data/dat.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/tests/data/dat.xlsx
+++ b/tests/data/dat.xlsx
@@ -10,6 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet22" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -779,4 +781,171 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1276474</v>
+      </c>
+      <c r="C2" t="n">
+        <v>51.5073219</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.9026911</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.4796992</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.2451148</v>
+      </c>
+      <c r="C4" t="n">
+        <v>53.4794892</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.5437941</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53.7974185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1276474</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.9026911</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.2451148</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.5437941</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>51.5073219</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.4796992</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.4794892</v>
+      </c>
+      <c r="E3" t="n">
+        <v>53.7974185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/tests/data/dat.xlsx
+++ b/tests/data/dat.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet12" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet22" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="TestSheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestSheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TestSheet11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TestSheet21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TestSheet12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TestSheet22" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,18 +22,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -49,27 +42,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -82,17 +60,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -464,24 +439,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Longitude</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Latitude</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>London</t>
         </is>
@@ -494,7 +469,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
@@ -507,7 +482,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Manchester</t>
         </is>
@@ -520,7 +495,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Leeds</t>
         </is>
@@ -552,29 +527,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Manchester</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Leeds</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Longitude</t>
         </is>
@@ -593,7 +568,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Latitude</t>
         </is>
@@ -631,24 +606,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Longitude</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Latitude</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>London</t>
         </is>
@@ -661,7 +636,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
@@ -674,7 +649,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Manchester</t>
         </is>
@@ -687,7 +662,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Leeds</t>
         </is>
@@ -719,29 +694,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Manchester</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Leeds</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Longitude</t>
         </is>
@@ -760,7 +735,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Latitude</t>
         </is>
@@ -798,24 +773,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Longitude</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Latitude</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>London</t>
         </is>
@@ -828,7 +803,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
@@ -841,7 +816,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Manchester</t>
         </is>
@@ -854,7 +829,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Leeds</t>
         </is>
@@ -886,29 +861,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Manchester</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Leeds</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Longitude</t>
         </is>
@@ -927,7 +902,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Latitude</t>
         </is>
